--- a/biology/Botanique/Angraecum_album_majus/Angraecum_album_majus.xlsx
+++ b/biology/Botanique/Angraecum_album_majus/Angraecum_album_majus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalaenopsis amabilis appelée aussi « Orchidée de la lune » est une espèce d'orchidées du genre Phalaenopsis. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, très courante chez les fleuristes, est originaire des îles de la Sonde. Elle est connue des Européens depuis le XVIIIe siècle. 
-Elle possède des feuilles oblongues de 20 à 30 cm de longueur sur 4 à 12 cm. La tige florale, élégamment recourbée, peut atteindre près de 1 m de long et est toujours polyanthe, parfois ramifiée. Les fleurs sont délicates, grandes, parfumées et ont une longue durée de vie[1] : elles sont de grandeur variable, de 8 à 12 cm de diamètre, par 6 à 15 en panicules retombantes longues de 30 à 100 cm ; en général elles sont d'un blanc de lait, sauf le labelle dont le fond jaune est moucheté de rouge ; et le surnom Orchidée-lune lui vient du long épanouissement des fleurs qui se prolongent toute la durée d'une phase lunaire[2]. Sa floraison s'étale d'octobre à janvier[3].
+Elle possède des feuilles oblongues de 20 à 30 cm de longueur sur 4 à 12 cm. La tige florale, élégamment recourbée, peut atteindre près de 1 m de long et est toujours polyanthe, parfois ramifiée. Les fleurs sont délicates, grandes, parfumées et ont une longue durée de vie : elles sont de grandeur variable, de 8 à 12 cm de diamètre, par 6 à 15 en panicules retombantes longues de 30 à 100 cm ; en général elles sont d'un blanc de lait, sauf le labelle dont le fond jaune est moucheté de rouge ; et le surnom Orchidée-lune lui vient du long épanouissement des fleurs qui se prolongent toute la durée d'une phase lunaire. Sa floraison s'étale d'octobre à janvier.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire d'Asie du Sud (notamment Nouvelle-Guinée, Philippines et Indonésie) et d'Australie (Queensland).
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Angraecum album majus (Rumph. 1750), Cymbidium amabile (Roxb. 1832)
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Angraecum album majus (Rumph. 1750), Cymbidium amabile (Roxb. 1832)
 Epidendrum amabile (L. 1753), Phalaenopsis amabilis var. aphrodite subvar. gloriosa (Ames 1908)
 Phalaenopsis amabilis var. fournieri (Cogn. 1898), Phalaenopsis amabilis var. grandiflora (Bateman 1867)
 Phalaenopsis amabilis var. ramosa (Van Deventer 1935), Phalaenopsis amabilis var. rimestadiana (Linden 1901)
@@ -585,9 +606,43 @@
 Phalaenopsis gloriosa (Rchb.f. 1888), Phalaenopsis grandiflora (Lindl. 1848)
 Phalaenopsis grandiflora var. gracillima (Burb. 1882), Phalaenopsis pleihary (Burgeff 1968)
 Phalaenopsis rimestadiana (Linden &amp; Rolfe 1905), Phalaenopsis × Elisabethae [= amabilis × rimestadiana](Vacherot,1927)
-Synadena amabilis (Raf. 1838).
-Variétés botaniques, horticoles et sous-espèces
-Phalaenopsis amabilis var. aurea (variété horticole)
+Synadena amabilis (Raf. 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Angraecum_album_majus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angraecum_album_majus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés botaniques, horticoles et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phalaenopsis amabilis var. aurea (variété horticole)
 Syn : var. fuscata (Rchb.f. 1862)
 Syn : Phalaenopsis grandiflora var. ruckeri (Burb 1876)
 Syn : Phalaenopsis grandiflora var. fuscata (Rchb.f. 1882))
@@ -601,8 +656,44 @@
 Phalaenopsis amabilis var. rimestadiana (variété horticole)
 Syn: Phalaenopsis rimestadiana
 Phalaenopsis amabilis var. vinicolor (variété horticole)
-À noter que les variétés horticoles ne sont plus reconnues par la liste de Kew depuis 2012[4].
-Hybrides primaires
+À noter que les variétés horticoles ne sont plus reconnues par la liste de Kew depuis 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Angraecum_album_majus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angraecum_album_majus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hybrides primaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Phalaenopsis 'Amabell' = Phalaenopsis bellina × Phal. amabilis (Orchids Ltd (R-J. Quené),2007)
 Phalaenopsis 'Ambriata' = Phal. amabilis × Phalaenopsis fimbriata (Fredk. L. Thornton,1981)
 Phalaenopsis 'Artemis' = Phal. amabilis × Phalaenopsis equestris (Veitch,1892)
@@ -646,31 +737,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Angraecum_album_majus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Angraecum_album_majus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hybrides secondaires (Descendance)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phalaenopsis 'Akatsuka Glory' = Phalaenopsis 'Dragon's Gold' × Phal. amabilis.
